--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Terminos Por Rol_2018-Marzo.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Terminos Por Rol_2018-Marzo.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -313,26 +313,11 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
       <c r="C8" s="65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="inlineStr" r="A9">
-        <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B9">
-        <is>
-          <t xml:space="preserve">Sentencia.</t>
-        </is>
-      </c>
-      <c r="C9" s="65">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
